--- a/data/trans_orig/P22S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725C9A39-FD7E-4129-8816-488A1E3C77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399F7720-6680-4175-A0B3-8DE21B01B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D2ABFCF-AD74-43AB-A2A3-38CF6DD84EAE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E45537A0-E11B-4303-83AD-32EF3B434B94}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="86">
   <si>
     <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -137,7 +137,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -155,7 +155,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -170,19 +170,19 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -194,16 +194,16 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -212,22 +212,25 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,19%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -236,7 +239,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -245,13 +248,10 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,61%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -272,19 +272,22 @@
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,98%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
   </si>
   <si>
     <t>99,97%</t>
@@ -702,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AD0B14-74D7-4AFA-AD6C-226DD4276193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9E6D5-D52A-469F-AE9E-4C8369EC6A57}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,7 +1756,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -1765,10 +1768,10 @@
         <v>746400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -1777,13 +1780,13 @@
         <v>1804</v>
       </c>
       <c r="N22" s="7">
-        <v>1469292</v>
+        <v>1469291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -1828,7 +1831,7 @@
         <v>1806</v>
       </c>
       <c r="N23" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>21</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1875,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1926,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1941,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -1986,7 +1989,7 @@
         <v>407</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
@@ -2010,7 +2013,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>21</v>
@@ -2025,7 +2028,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>19</v>
@@ -2117,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2132,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2168,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2183,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2219,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2234,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2261,7 +2264,7 @@
         <v>1028</v>
       </c>
       <c r="D32" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>19</v>
@@ -2312,7 +2315,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -2374,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2389,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2398,13 +2401,13 @@
         <v>2047</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2422,13 @@
         <v>1099</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -2452,10 +2455,10 @@
         <v>76</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2488,13 @@
         <v>407</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2500,13 +2503,13 @@
         <v>407</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2527,7 @@
         <v>75</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>19</v>
@@ -2542,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M37" s="7">
         <v>8734</v>
       </c>
       <c r="N37" s="7">
-        <v>7188082</v>
+        <v>7188081</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>75</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2602,7 @@
         <v>8740</v>
       </c>
       <c r="N38" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>21</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399F7720-6680-4175-A0B3-8DE21B01B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FAABB1-A924-42D0-B740-AFBC30DFEC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E45537A0-E11B-4303-83AD-32EF3B434B94}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B02F0CD8-E9D3-4A44-BB73-18C4FC119714}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9E6D5-D52A-469F-AE9E-4C8369EC6A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7D25-7787-4A87-9E91-8AC4CBF17595}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
